--- a/reporting/Acts_12_22.xlsx
+++ b/reporting/Acts_12_22.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2613E2-CE36-4421-A42F-E1794EBC8501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB169BE-7279-49B2-B196-3F6C90DAA764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3940" yWindow="3940" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Контрагент</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>моб/монтаж</t>
+  </si>
+  <si>
+    <t>роботи в період з 28.11.2022р. по 31.12.2022р. Включно</t>
+  </si>
+  <si>
+    <t>теоритично</t>
   </si>
   <si>
     <t>Клубанівсько-Зубренківське родовище №10</t>
@@ -1036,8 +1042,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Acts" displayName="Acts" ref="A5:K34" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A5:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Acts" displayName="Acts" ref="A5:K35" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="A5:K34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="1" totalsRowLabel="Итог" totalsRowDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2" totalsRowDxfId="9"/>
@@ -1323,27 +1329,27 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K34"/>
+  <dimension ref="A2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K16"/>
+      <selection activeCell="G6" sqref="G6:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.7265625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.81640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1364,7 @@
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1496,129 +1502,149 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7">
-        <v>42463003.460000001</v>
+        <v>25602408</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>7077167.2433333332</v>
+        <v>4267068</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7">
-        <v>25201709.82</v>
+        <v>42463003.460000001</v>
       </c>
       <c r="H9" s="7">
-        <v>25201709.82</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>0</v>
+        <v>7077167.2433333332</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7">
-        <v>16888638</v>
+        <v>25201709.82</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>25201709.82</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J10" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>2814773</v>
+        <v>0</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7">
+        <v>16888638</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2814773</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1634,7 +1660,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1650,7 +1676,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1666,7 +1692,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1682,7 +1708,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1698,7 +1724,7 @@
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1714,7 +1740,7 @@
       </c>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1730,7 +1756,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1746,7 +1772,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1762,7 +1788,7 @@
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1778,7 +1804,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1794,7 +1820,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1810,7 +1836,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1826,7 +1852,7 @@
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1842,7 +1868,7 @@
       </c>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1858,7 +1884,7 @@
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1874,7 +1900,7 @@
       </c>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1890,7 +1916,7 @@
       </c>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1906,7 +1932,7 @@
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1922,7 +1948,7 @@
       </c>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1938,7 +1964,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1954,7 +1980,7 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1970,29 +1996,45 @@
       </c>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:11" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="17">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="17">
         <f>SUBTOTAL(109,Acts[7])</f>
-        <v>92052619.280000001</v>
-      </c>
-      <c r="H34" s="17">
+        <v>117655027.28</v>
+      </c>
+      <c r="H35" s="17">
         <f>SUBTOTAL(109,Acts[8])</f>
         <v>25201709.82</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="17">
+      <c r="I35" s="15"/>
+      <c r="J35" s="17">
         <f>SUBTOTAL(109,Acts[10])</f>
-        <v>11141818.243333332</v>
-      </c>
-      <c r="K34" s="18"/>
+        <v>15408886.243333332</v>
+      </c>
+      <c r="K35" s="18"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
